--- a/docs/Sprints Backlogs/Sprint4 Backlog.xlsx
+++ b/docs/Sprints Backlogs/Sprint4 Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15405" windowHeight="6270" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15405" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint #2" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_2___Em_Andamento" localSheetId="2">Lookups!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sprint #2'!$A$2:$S$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sprint #2'!$A$2:$S$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint #2 - Retired'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Burn-down Chart'!$A$1:$P$38</definedName>
     <definedName name="BusinessValue">Lookups!$B$2:$B$4</definedName>
@@ -29,7 +29,7 @@
     <definedName name="Team">Lookups!$F$2:$F$7</definedName>
     <definedName name="Type">Lookups!$E$2:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R29" authorId="0">
+    <comment ref="R28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R30" authorId="0">
+    <comment ref="R29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -1153,9 +1153,6 @@
     <t>Fim</t>
   </si>
   <si>
-    <t>Elaboração do Documento de Visão e Escopo</t>
-  </si>
-  <si>
     <t>Joelton</t>
   </si>
   <si>
@@ -1184,6 +1181,24 @@
   </si>
   <si>
     <t>eBM</t>
+  </si>
+  <si>
+    <t>CRUD Usuario</t>
+  </si>
+  <si>
+    <t>CRUD Região</t>
+  </si>
+  <si>
+    <t>CRUD Unidade Federativa</t>
+  </si>
+  <si>
+    <t>CRUD Cidade</t>
+  </si>
+  <si>
+    <t>CRUD Endereço</t>
+  </si>
+  <si>
+    <t>CRUD Gênero Sexual</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1530,6 +1545,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1548,7 +1566,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1556,13 +1574,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="10"/>
+          <bgColor indexed="40"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1632,6 +1664,13 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -1669,7 +1708,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1704857107406077"/>
-          <c:y val="2.6881786835469133E-2"/>
+          <c:y val="2.6881786835469143E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1735,34 +1774,46 @@
             <c:strRef>
               <c:f>'Sprint #2'!$T$2:$AD$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21/10/2013</c:v>
+                  <c:v>19/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22/10/2013</c:v>
+                  <c:v>20/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23/10/2013</c:v>
+                  <c:v>21/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24/10/2013</c:v>
+                  <c:v>22/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25/10/2013</c:v>
+                  <c:v>25/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28/10/2013</c:v>
+                  <c:v>26/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29/11/2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>02/12/2013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint #2'!$T$24:$AD$24</c:f>
+              <c:f>'Sprint #2'!$T$23:$AD$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1770,33 +1821,45 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90875392"/>
-        <c:axId val="90877312"/>
+        <c:axId val="102058240"/>
+        <c:axId val="67846528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90875392"/>
+        <c:axId val="102058240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1891,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41558653408557089"/>
+              <c:x val="0.41558653408557095"/>
               <c:y val="0.93052333586002856"/>
             </c:manualLayout>
           </c:layout>
@@ -1866,7 +1929,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90877312"/>
+        <c:crossAx val="67846528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1938,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90877312"/>
+        <c:axId val="67846528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1957,7 +2020,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90875392"/>
+        <c:crossAx val="102058240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2370,13 +2433,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:BA42"/>
+  <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
+      <selection pane="bottomRight" activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2409,11 +2472,11 @@
       <c r="B1" s="36"/>
       <c r="N1" s="38"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:53" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="35" t="s">
@@ -2477,32 +2540,44 @@
         <v>21</v>
       </c>
       <c r="U2" s="18">
-        <v>41568</v>
+        <v>41597</v>
       </c>
       <c r="V2" s="18">
         <f>IF(AND(WEEKDAY(U2) &gt; 0,WEEKDAY(U2) &lt; 6), U2+1, U2+3)</f>
-        <v>41569</v>
+        <v>41598</v>
       </c>
       <c r="W2" s="46">
         <f t="shared" ref="W2:X2" si="0">IF(AND(WEEKDAY(V2) &gt; 0,WEEKDAY(V2) &lt; 6), V2+1, V2+3)</f>
-        <v>41570</v>
+        <v>41599</v>
       </c>
       <c r="X2" s="18">
         <f t="shared" si="0"/>
-        <v>41571</v>
+        <v>41600</v>
       </c>
       <c r="Y2" s="18">
         <f t="shared" ref="Y2" si="1">IF(AND(WEEKDAY(X2) &gt; 0,WEEKDAY(X2) &lt; 6), X2+1, X2+3)</f>
-        <v>41572</v>
+        <v>41603</v>
       </c>
       <c r="Z2" s="18">
         <f t="shared" ref="Z2" si="2">IF(AND(WEEKDAY(Y2) &gt; 0,WEEKDAY(Y2) &lt; 6), Y2+1, Y2+3)</f>
-        <v>41575</v>
-      </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
+        <v>41604</v>
+      </c>
+      <c r="AA2" s="18">
+        <f t="shared" ref="AA2" si="3">IF(AND(WEEKDAY(Z2) &gt; 0,WEEKDAY(Z2) &lt; 6), Z2+1, Z2+3)</f>
+        <v>41605</v>
+      </c>
+      <c r="AB2" s="18">
+        <f t="shared" ref="AB2" si="4">IF(AND(WEEKDAY(AA2) &gt; 0,WEEKDAY(AA2) &lt; 6), AA2+1, AA2+3)</f>
+        <v>41606</v>
+      </c>
+      <c r="AC2" s="18">
+        <f t="shared" ref="AC2" si="5">IF(AND(WEEKDAY(AB2) &gt; 0,WEEKDAY(AB2) &lt; 6), AB2+1, AB2+3)</f>
+        <v>41607</v>
+      </c>
+      <c r="AD2" s="18">
+        <f t="shared" ref="AD2" si="6">IF(AND(WEEKDAY(AC2) &gt; 0,WEEKDAY(AC2) &lt; 6), AC2+1, AC2+3)</f>
+        <v>41610</v>
+      </c>
       <c r="AE2" s="18"/>
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
@@ -2527,17 +2602,17 @@
       <c r="AZ2" s="18"/>
       <c r="BA2" s="18"/>
     </row>
-    <row r="3" spans="1:53" ht="38.25">
+    <row r="3" spans="1:53">
       <c r="A3" s="45" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="71">
-        <v>41568</v>
-      </c>
-      <c r="E3" s="71">
-        <v>41575</v>
+      <c r="C3" s="52"/>
+      <c r="D3" s="72">
+        <v>41599</v>
+      </c>
+      <c r="E3" s="72">
+        <v>41599</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="60" t="s">
@@ -2550,141 +2625,267 @@
         <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="O3" s="53">
+        <v>2</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q19" si="3">IF(P3&lt;&gt;"",P3-O3,"")</f>
+        <f>IF(P3&lt;&gt;"",P3-O3,"")</f>
         <v/>
       </c>
       <c r="R3" s="3">
         <f>IF(P3="",O3,P3)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S19" si="4">R3-SUM(U3:AI3)</f>
-        <v>6</v>
+        <f t="shared" ref="S3:S18" si="7">R3-SUM(U3:AI3)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="45"/>
+      <c r="A4" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="65">
+        <v>41603</v>
+      </c>
+      <c r="E4" s="65">
+        <v>41603</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="60">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="53">
+        <v>1.5</v>
+      </c>
       <c r="Q4" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(P4&lt;&gt;"",P4-O4,"")</f>
         <v/>
       </c>
       <c r="R4" s="3">
-        <f t="shared" ref="R4:R19" si="5">IF(P4="",O4,P4)</f>
-        <v>0</v>
+        <f>IF(P4="",O4,P4)</f>
+        <v>1.5</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:53" ht="25.5">
+      <c r="A5" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="B5" s="44"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="65">
+        <v>41604</v>
+      </c>
+      <c r="E5" s="65">
+        <v>41604</v>
+      </c>
       <c r="F5" s="61"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="60"/>
-      <c r="J5" s="41"/>
+      <c r="G5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="60">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="53">
+        <v>1</v>
+      </c>
       <c r="Q5" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(P5&lt;&gt;"",P5-O5,"")</f>
         <v/>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P5="",O5,P5)</f>
+        <v>1</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="B6" s="44"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="72">
+        <v>41603</v>
+      </c>
+      <c r="E6" s="72">
+        <v>41603</v>
+      </c>
       <c r="F6" s="61"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="60"/>
-      <c r="J6" s="41"/>
+      <c r="G6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="60">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="53">
+        <v>1</v>
+      </c>
       <c r="Q6" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(P6&lt;&gt;"",P6-O6,"")</f>
         <v/>
       </c>
       <c r="R6" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P6="",O6,P6)</f>
+        <v>1</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="B7" s="55"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="60"/>
-      <c r="J7" s="41"/>
+      <c r="A7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="65">
+        <v>41608</v>
+      </c>
+      <c r="E7" s="65">
+        <v>41608</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="60">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="53">
+        <v>0.5</v>
+      </c>
       <c r="Q7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(P7&lt;&gt;"",P7-O7,"")</f>
         <v/>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P7="",O7,P7)</f>
+        <v>0.5</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" ht="25.5">
+      <c r="A8" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="B8" s="44"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="65">
+        <v>41609</v>
+      </c>
+      <c r="E8" s="65">
+        <v>41609</v>
+      </c>
       <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="J8" s="41"/>
+      <c r="G8" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="60">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="N8" s="50"/>
+      <c r="O8" s="53">
+        <v>1</v>
+      </c>
       <c r="Q8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(P8&lt;&gt;"",P8-O8,"")</f>
         <v/>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P8="",O8,P8)</f>
+        <v>1</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -2697,16 +2898,17 @@
       <c r="H9" s="60"/>
       <c r="J9" s="41"/>
       <c r="N9" s="50"/>
+      <c r="O9" s="53"/>
       <c r="Q9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(P9&lt;&gt;"",P9-O9,"")</f>
         <v/>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="R9:R18" si="8">IF(P9="",O9,P9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2715,21 +2917,21 @@
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="59"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
       <c r="J10" s="41"/>
-      <c r="N10" s="50"/>
+      <c r="O10" s="53"/>
       <c r="Q10" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q9:Q18" si="9">IF(P10&lt;&gt;"",P10-O10,"")</f>
         <v/>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2738,20 +2940,20 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="60"/>
       <c r="J11" s="41"/>
       <c r="Q11" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2764,16 +2966,17 @@
       <c r="G12" s="19"/>
       <c r="H12" s="60"/>
       <c r="J12" s="41"/>
+      <c r="N12" s="50"/>
       <c r="Q12" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2788,15 +2991,15 @@
       <c r="J13" s="41"/>
       <c r="N13" s="50"/>
       <c r="Q13" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2811,15 +3014,15 @@
       <c r="J14" s="41"/>
       <c r="N14" s="50"/>
       <c r="Q14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,15 +3037,15 @@
       <c r="J15" s="41"/>
       <c r="N15" s="50"/>
       <c r="Q15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2857,15 +3060,15 @@
       <c r="J16" s="41"/>
       <c r="N16" s="50"/>
       <c r="Q16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2880,471 +3083,504 @@
       <c r="J17" s="41"/>
       <c r="N17" s="50"/>
       <c r="Q17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53">
-      <c r="B18" s="44"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="60"/>
-      <c r="J18" s="41"/>
-      <c r="N18" s="50"/>
-      <c r="Q18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="62" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:53" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R19" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-    </row>
-    <row r="20" spans="1:53" s="3" customFormat="1" ht="13.5" thickTop="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="N20" s="32" t="s">
+      <c r="R18" s="63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+    </row>
+    <row r="19" spans="1:53" s="3" customFormat="1" ht="13.5" thickTop="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="N19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O20">
-        <f>SUM(O3:O19)</f>
-        <v>6</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="8">
-        <f>SUM(Q3:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="8">
-        <f>SUM(R3:R19)</f>
-        <v>6</v>
-      </c>
-      <c r="S20" s="2">
-        <f>SUM(S3:S19)</f>
-        <v>6</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
-      <c r="AK20"/>
-      <c r="AL20"/>
-      <c r="AM20"/>
-      <c r="AN20"/>
-      <c r="AO20"/>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
-      <c r="AX20"/>
-      <c r="AY20"/>
-      <c r="AZ20"/>
-      <c r="BA20"/>
+      <c r="O19">
+        <f>SUM(O3:O18)</f>
+        <v>7</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="8">
+        <f>SUM(Q3:Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <f>SUM(R3:R18)</f>
+        <v>7</v>
+      </c>
+      <c r="S19" s="2">
+        <f>SUM(S3:S18)</f>
+        <v>7</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+    </row>
+    <row r="20" spans="1:53">
+      <c r="N20" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="7">
+        <f>R19</f>
+        <v>7</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1.5</v>
+      </c>
+      <c r="X20" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="51">
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0.5</v>
+      </c>
+      <c r="AC20">
+        <v>1.5</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:53">
-      <c r="N21" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="7">
-        <f>R20</f>
-        <v>6</v>
+      <c r="N21" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21">
+        <f>O20-O19</f>
+        <v>0</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="T21" s="25"/>
       <c r="U21">
-        <v>1</v>
+        <f>T21+U20</f>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0.5</v>
+        <f>U21+V20</f>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21" s="51">
+        <f>V21+W20</f>
         <v>1.5</v>
       </c>
-      <c r="Y21" s="51">
-        <v>1</v>
+      <c r="X21">
+        <f t="shared" ref="X21:Z21" si="10">W21+X20</f>
+        <v>1.5</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>4.5</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ref="AA21" si="11">Z21+AA20</f>
+        <v>4.5</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ref="AB21" si="12">AA21+AB20</f>
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21" si="13">AB21+AC20</f>
+        <v>6.5</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" ref="AD21" si="14">AC21+AD20</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="22" spans="1:53">
-      <c r="N22" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22">
-        <f>O21-O20</f>
+      <c r="N22" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="24">
+        <f>O20/O19-1</f>
         <v>0</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="T22" s="25"/>
       <c r="U22">
-        <f>T22+U21</f>
+        <f>$O19-U21+SUM($T25:U25)</f>
+        <v>7</v>
+      </c>
+      <c r="V22">
+        <f>$O19-V21+SUM($T25:V25)</f>
+        <v>7</v>
+      </c>
+      <c r="W22">
+        <f>$O19-W21+SUM($T25:W25)</f>
+        <v>5.5</v>
+      </c>
+      <c r="X22">
+        <f>$O19-X21+SUM($T25:X25)</f>
+        <v>5.5</v>
+      </c>
+      <c r="Y22">
+        <f>$O19-Y21+SUM($T25:Y25)</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z22">
+        <f>$O19-Z21+SUM($T25:Z25)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AA22">
+        <f>$O19-AA21+SUM($T25:AA25)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AB22">
+        <f>$O19-AB21+SUM($T25:AB25)</f>
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <f>$O19-AC21+SUM($T25:AC25)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD22">
+        <f>$O19-AD21+SUM($T25:AD25)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53">
+      <c r="N23" s="37"/>
+      <c r="O23" s="7"/>
+      <c r="S23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="27">
         <v>1</v>
       </c>
-      <c r="V22">
-        <f>U22+V21</f>
-        <v>1.5</v>
-      </c>
-      <c r="W22">
-        <f>V22+W21</f>
-        <v>2.5</v>
-      </c>
-      <c r="X22">
-        <f t="shared" ref="X22:AP22" si="6">W22+X21</f>
-        <v>4</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="N23" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="24">
-        <f>O21/O20-1</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="25"/>
-      <c r="U23">
-        <f>$O20-U22+SUM($T26:U26)</f>
-        <v>5</v>
-      </c>
-      <c r="V23">
-        <f>$O20-V22+SUM($T26:V26)</f>
-        <v>4.5</v>
-      </c>
-      <c r="W23">
-        <f>$O20-W22+SUM($T26:W26)</f>
-        <v>3.5</v>
-      </c>
-      <c r="X23">
-        <f>$O20-X22+SUM($T26:X26)</f>
+      <c r="U23" s="11">
+        <f ca="1">IF(U2 &lt; $S$29, U22/$O$20, NA())</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="11">
+        <f ca="1">IF(V2 &lt; $S$29, V22/$O$20, NA())</f>
+        <v>1</v>
+      </c>
+      <c r="W23" s="11">
+        <f ca="1">IF(W2 &lt; $S$29, W22/$O$20, NA())</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="X23" s="11">
+        <f ca="1">IF(X2 &lt; $S$29, X22/$O$20, NA())</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="Y23" s="11">
+        <f ca="1">IF(Y2 &lt; $S$29, Y22/$O$20, NA())</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z23" s="11">
+        <f ca="1">IF(Z2 &lt; $S$29, Z22/$O$20, NA())</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AA23" s="11">
+        <f t="shared" ref="AA23:AD23" ca="1" si="15">IF(AA2 &lt; $S$29, AA22/$O$20, NA())</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AB23" s="11">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC23" s="11">
+        <f t="shared" ca="1" si="15"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AD23" s="11">
+        <f t="shared" ca="1" si="15"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+    </row>
+    <row r="24" spans="1:53">
+      <c r="N24" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24">
+        <f>S19</f>
+        <v>7</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+    </row>
+    <row r="25" spans="1:53">
+      <c r="N25" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="23">
+        <f>O24/O20</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53">
+      <c r="N26" s="37"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:53" ht="25.5">
+      <c r="N27" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27">
         <v>2</v>
       </c>
-      <c r="Y23">
-        <f>$O20-Y22+SUM($T26:Y26)</f>
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <f>$O20-Z22+SUM($T26:Z26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="N24" s="37"/>
-      <c r="O24" s="7"/>
-      <c r="S24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="27">
-        <v>1</v>
-      </c>
-      <c r="U24" s="11">
-        <f t="shared" ref="U24:AP24" ca="1" si="7">IF(U2 &lt; $S$30, U23/$O$21, NA())</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="V24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.75</v>
-      </c>
-      <c r="W24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="X24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Y24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Z24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="N25" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25">
-        <f>S20</f>
-        <v>6</v>
-      </c>
-      <c r="T25" s="25"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
-      <c r="AN25" s="12"/>
-      <c r="AO25" s="12"/>
-      <c r="AP25" s="12"/>
-    </row>
-    <row r="26" spans="1:53">
-      <c r="N26" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="23">
-        <f>O25/O21</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="T26" s="25">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:53">
-      <c r="N27" s="37"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:53" ht="25.5">
-      <c r="N28" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-      <c r="T28" s="26"/>
-    </row>
-    <row r="29" spans="1:53" ht="38.25">
-      <c r="N29" s="37" t="s">
+      <c r="T27" s="26"/>
+    </row>
+    <row r="28" spans="1:53" ht="38.25">
+      <c r="N28" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="22">
-        <f>((O25/O28)/8)/0.8</f>
-        <v>0.46875</v>
-      </c>
+      <c r="O28" s="22">
+        <f>((O24/O27)/8)/0.8</f>
+        <v>0.546875</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="2">
+        <f>SUM(Q3:Q18)-SUM(U25:AP25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53">
       <c r="R29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" s="2">
-        <f>SUM(Q3:Q19)-SUM(U26:AP26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:53">
-      <c r="R30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="S30" s="39">
+      <c r="S29" s="39">
         <f ca="1">NOW()</f>
-        <v>41675.826051041666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:53">
-      <c r="S32" s="39"/>
-      <c r="V32" s="11"/>
-    </row>
-    <row r="42" spans="19:19">
-      <c r="S42" s="13"/>
+        <v>41681.83016597222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53">
+      <c r="S31" s="39"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="41" spans="19:19">
+      <c r="S41" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S26">
+  <autoFilter ref="A2:S25">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
   </autoFilter>
@@ -3355,47 +3591,47 @@
     <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="S29 T27">
+  <conditionalFormatting sqref="S28 T26">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40">
+  <conditionalFormatting sqref="R39">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:T19">
+  <conditionalFormatting sqref="S3:T18">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:AP2">
-    <cfRule type="cellIs" dxfId="1" priority="158" stopIfTrue="1" operator="between">
-      <formula>$S$30</formula>
-      <formula>$S$30-1</formula>
+    <cfRule type="cellIs" dxfId="1" priority="160" stopIfTrue="1" operator="between">
+      <formula>$S$29</formula>
+      <formula>$S$29-1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G65509 G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G55:G65508 G3:G19">
       <formula1>Team</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J56:J65509 J3:J20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J55:J65508 J3:J19">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L56:L65509 L3:L20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L55:L65508 L3:L19">
       <formula1>Risk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56:H65509 H3:H10 H12:H18 H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H55:H65508 H11:H17 H19 H3:H9">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M56:M65509 M3:M20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M55:M65508 M3:M19">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K56:K65509 K3:K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K55:K65508 K3:K19">
       <formula1>BusinessValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I65509">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I65508">
       <formula1>Type</formula1>
     </dataValidation>
   </dataValidations>
@@ -3411,7 +3647,7 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -3488,16 +3724,16 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3511,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="40"/>
     </row>
@@ -3532,7 +3768,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3540,7 +3776,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3548,7 +3784,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3659,11 +3895,11 @@
     <row r="1" spans="1:51" s="21" customFormat="1">
       <c r="K1" s="33"/>
       <c r="L1" s="17"/>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:51" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -4118,7 +4354,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q3:R20">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Sprints Backlogs/Sprint4 Backlog.xlsx
+++ b/docs/Sprints Backlogs/Sprint4 Backlog.xlsx
@@ -1548,6 +1548,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1566,35 +1569,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="40"/>
+          <bgColor indexed="10"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1664,13 +1650,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -1698,7 +1677,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Sprint 1 - eBM - EM 28/10/2013 as 20:00h.</a:t>
+              <a:t>Sprint 4 - eBM - EM 03/12/2013 as 20:00h.</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1708,7 +1687,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1704857107406077"/>
-          <c:y val="2.6881786835469143E-2"/>
+          <c:y val="2.6881786835469164E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1855,11 +1834,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="102058240"/>
-        <c:axId val="67846528"/>
+        <c:axId val="89244416"/>
+        <c:axId val="89246336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102058240"/>
+        <c:axId val="89244416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1870,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41558653408557095"/>
+              <c:x val="0.41558653408557111"/>
               <c:y val="0.93052333586002856"/>
             </c:manualLayout>
           </c:layout>
@@ -1929,7 +1908,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67846528"/>
+        <c:crossAx val="89246336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1938,7 +1917,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67846528"/>
+        <c:axId val="89246336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2020,7 +1999,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102058240"/>
+        <c:crossAx val="89244416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2436,10 +2415,10 @@
   <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD20" sqref="AD20"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2472,11 +2451,11 @@
       <c r="B1" s="36"/>
       <c r="N1" s="38"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:53" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="35" t="s">
@@ -2608,10 +2587,10 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="72">
+      <c r="D3" s="66">
         <v>41599</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="66">
         <v>41599</v>
       </c>
       <c r="F3" s="59"/>
@@ -2637,15 +2616,15 @@
         <v>2</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f>IF(P3&lt;&gt;"",P3-O3,"")</f>
+        <f t="shared" ref="Q3:Q9" si="7">IF(P3&lt;&gt;"",P3-O3,"")</f>
         <v/>
       </c>
       <c r="R3" s="3">
-        <f>IF(P3="",O3,P3)</f>
+        <f t="shared" ref="R3:R8" si="8">IF(P3="",O3,P3)</f>
         <v>2</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S18" si="7">R3-SUM(U3:AI3)</f>
+        <f t="shared" ref="S3:S18" si="9">R3-SUM(U3:AI3)</f>
         <v>2</v>
       </c>
     </row>
@@ -2663,7 +2642,7 @@
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="60">
         <v>9</v>
@@ -2684,15 +2663,15 @@
         <v>1.5</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f>IF(P4&lt;&gt;"",P4-O4,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R4" s="3">
-        <f>IF(P4="",O4,P4)</f>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="X4" s="53"/>
@@ -2733,15 +2712,15 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f>IF(P5&lt;&gt;"",P5-O5,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R5" s="3">
-        <f>IF(P5="",O5,P5)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2751,10 +2730,10 @@
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="52"/>
-      <c r="D6" s="72">
+      <c r="D6" s="66">
         <v>41603</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="66">
         <v>41603</v>
       </c>
       <c r="F6" s="61"/>
@@ -2780,15 +2759,15 @@
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f>IF(P6&lt;&gt;"",P6-O6,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R6" s="3">
-        <f>IF(P6="",O6,P6)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2828,15 +2807,15 @@
         <v>0.5</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f>IF(P7&lt;&gt;"",P7-O7,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R7" s="3">
-        <f>IF(P7="",O7,P7)</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2854,7 +2833,7 @@
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="60">
         <v>9</v>
@@ -2876,15 +2855,15 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f>IF(P8&lt;&gt;"",P8-O8,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R8" s="3">
-        <f>IF(P8="",O8,P8)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2900,15 +2879,15 @@
       <c r="N9" s="50"/>
       <c r="O9" s="53"/>
       <c r="Q9" s="3" t="str">
-        <f>IF(P9&lt;&gt;"",P9-O9,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R9" s="3">
-        <f t="shared" ref="R9:R18" si="8">IF(P9="",O9,P9)</f>
+        <f t="shared" ref="R9:R18" si="10">IF(P9="",O9,P9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2923,15 +2902,15 @@
       <c r="J10" s="41"/>
       <c r="O10" s="53"/>
       <c r="Q10" s="3" t="str">
-        <f t="shared" ref="Q9:Q18" si="9">IF(P10&lt;&gt;"",P10-O10,"")</f>
+        <f t="shared" ref="Q10:Q18" si="11">IF(P10&lt;&gt;"",P10-O10,"")</f>
         <v/>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2945,15 +2924,15 @@
       <c r="H11" s="60"/>
       <c r="J11" s="41"/>
       <c r="Q11" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2968,15 +2947,15 @@
       <c r="J12" s="41"/>
       <c r="N12" s="50"/>
       <c r="Q12" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2991,15 +2970,15 @@
       <c r="J13" s="41"/>
       <c r="N13" s="50"/>
       <c r="Q13" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3014,15 +2993,15 @@
       <c r="J14" s="41"/>
       <c r="N14" s="50"/>
       <c r="Q14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3037,15 +3016,15 @@
       <c r="J15" s="41"/>
       <c r="N15" s="50"/>
       <c r="Q15" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3060,15 +3039,15 @@
       <c r="J16" s="41"/>
       <c r="N16" s="50"/>
       <c r="Q16" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3083,15 +3062,15 @@
       <c r="J17" s="41"/>
       <c r="N17" s="50"/>
       <c r="Q17" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3113,15 +3092,15 @@
       <c r="O18" s="5"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R18" s="63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="64">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R18" s="63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="64">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T18" s="5"/>
@@ -3278,31 +3257,31 @@
         <v>1.5</v>
       </c>
       <c r="X21">
-        <f t="shared" ref="X21:Z21" si="10">W21+X20</f>
+        <f t="shared" ref="X21:Z21" si="12">W21+X20</f>
         <v>1.5</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="AA21">
-        <f t="shared" ref="AA21" si="11">Z21+AA20</f>
+        <f t="shared" ref="AA21" si="13">Z21+AA20</f>
         <v>4.5</v>
       </c>
       <c r="AB21">
-        <f t="shared" ref="AB21" si="12">AA21+AB20</f>
+        <f t="shared" ref="AB21" si="14">AA21+AB20</f>
         <v>5</v>
       </c>
       <c r="AC21">
-        <f t="shared" ref="AC21" si="13">AB21+AC20</f>
+        <f t="shared" ref="AC21" si="15">AB21+AC20</f>
         <v>6.5</v>
       </c>
       <c r="AD21">
-        <f t="shared" ref="AD21" si="14">AC21+AD20</f>
+        <f t="shared" ref="AD21" si="16">AC21+AD20</f>
         <v>6.5</v>
       </c>
     </row>
@@ -3369,43 +3348,43 @@
         <v>1</v>
       </c>
       <c r="U23" s="11">
-        <f ca="1">IF(U2 &lt; $S$29, U22/$O$20, NA())</f>
+        <f t="shared" ref="U23:Z23" ca="1" si="17">IF(U2 &lt; $S$29, U22/$O$20, NA())</f>
         <v>1</v>
       </c>
       <c r="V23" s="11">
-        <f ca="1">IF(V2 &lt; $S$29, V22/$O$20, NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="W23" s="11">
-        <f ca="1">IF(W2 &lt; $S$29, W22/$O$20, NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="X23" s="11">
-        <f ca="1">IF(X2 &lt; $S$29, X22/$O$20, NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="Y23" s="11">
-        <f ca="1">IF(Y2 &lt; $S$29, Y22/$O$20, NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.5</v>
       </c>
       <c r="Z23" s="11">
-        <f ca="1">IF(Z2 &lt; $S$29, Z22/$O$20, NA())</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="AA23" s="11">
-        <f t="shared" ref="AA23:AD23" ca="1" si="15">IF(AA2 &lt; $S$29, AA22/$O$20, NA())</f>
+        <f t="shared" ref="AA23:AD23" ca="1" si="18">IF(AA2 &lt; $S$29, AA22/$O$20, NA())</f>
         <v>0.35714285714285715</v>
       </c>
       <c r="AB23" s="11">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="18"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AC23" s="11">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="18"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AD23" s="11">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="18"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AE23" s="11"/>
@@ -3569,7 +3548,7 @@
       </c>
       <c r="S29" s="39">
         <f ca="1">NOW()</f>
-        <v>41681.83016597222</v>
+        <v>41689.01504189815</v>
       </c>
     </row>
     <row r="31" spans="1:53">
@@ -3647,7 +3626,7 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="P42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -3895,11 +3874,11 @@
     <row r="1" spans="1:51" s="21" customFormat="1">
       <c r="K1" s="33"/>
       <c r="L1" s="17"/>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:51" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -4354,7 +4333,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q3:R20">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
